--- a/سرویس های دوره ای تجهیزات گندله سازی/noekar_vlookup.xlsx
+++ b/سرویس های دوره ای تجهیزات گندله سازی/noekar_vlookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heidaralavi\Documents\GitHub\RCM_data_concatinating\سرویس های دوره ای تجهیزات گندله سازی\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h.alavi\Documents\RCM_data_concatinating\سرویس های دوره ای تجهیزات گندله سازی\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E60E2ED-C45E-4E67-9E59-2BDE72B759B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FEA94A-3659-48FD-9FB6-57963C28F246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7EF005FC-1C2E-4D22-993E-DD7B40F022C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{7EF005FC-1C2E-4D22-993E-DD7B40F022C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,10 +129,10 @@
     <t>TR</t>
   </si>
   <si>
-    <t>AT</t>
-  </si>
-  <si>
     <t>HY</t>
+  </si>
+  <si>
+    <t>IN</t>
   </si>
 </sst>
 </file>
@@ -208,12 +208,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -226,6 +220,12 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -244,11 +244,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78D3D8FD-A18F-4F9C-92FA-2649B8964BEB}" name="noekar" displayName="noekar" ref="A1:C20" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78D3D8FD-A18F-4F9C-92FA-2649B8964BEB}" name="noekar" displayName="noekar" ref="A1:C20" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C20" xr:uid="{78D3D8FD-A18F-4F9C-92FA-2649B8964BEB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{08261541-207B-4EB4-8B61-C4EA9D1B7598}" name="واحد اجرایی" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{D91DF7A4-99B2-4663-8703-A45618CAF6EC}" name="نوع کار" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{08261541-207B-4EB4-8B61-C4EA9D1B7598}" name="واحد اجرایی" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{D91DF7A4-99B2-4663-8703-A45618CAF6EC}" name="نوع کار" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{F0B13C04-7BE0-4137-884F-6D144EFE87D0}" name="ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -544,7 +544,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -555,16 +555,16 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -575,7 +575,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -586,7 +586,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -597,7 +597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -608,7 +608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -619,7 +619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -641,7 +641,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -663,7 +663,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -674,7 +674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -685,7 +685,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -696,7 +696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -707,7 +707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -718,7 +718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -729,7 +729,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -737,10 +737,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -751,7 +751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -762,7 +762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -773,7 +773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
